--- a/理想南向持有.xlsx
+++ b/理想南向持有.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>日期</t>
   </si>
@@ -242,9 +242,6 @@
   </si>
   <si>
     <t>2026-02-12</t>
-  </si>
-  <si>
-    <t>2026-02-13</t>
   </si>
 </sst>
 </file>
@@ -602,7 +599,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C75"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1422,17 +1419,6 @@
         <v>5.29</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="s">
-        <v>76</v>
-      </c>
-      <c r="B75">
-        <v>42.53</v>
-      </c>
-      <c r="C75">
-        <v>5.29754581</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/理想南向持有.xlsx
+++ b/理想南向持有.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C75"/>
+  <dimension ref="A1:C491"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,963 +453,6369 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>-15.55</v>
-      </c>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>4.86</v>
+        <v>1.51566297</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2024-02-27</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>49.31</v>
+        <v>138.9257</v>
       </c>
       <c r="C3" t="n">
-        <v>4.87</v>
+        <v>1.52955554</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2024-02-28</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-184.08</v>
+        <v>177.3452</v>
       </c>
       <c r="C4" t="n">
-        <v>4.85</v>
+        <v>1.54729006</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2024-02-29</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-974.87</v>
+        <v>17.844</v>
       </c>
       <c r="C5" t="n">
-        <v>4.75</v>
+        <v>1.54907446</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2024-03-01</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-346.14</v>
+        <v>94.1413</v>
       </c>
       <c r="C6" t="n">
-        <v>4.71</v>
+        <v>1.55848859</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-11-03</t>
+          <t>2024-03-04</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-182.27</v>
+        <v>-78.66</v>
       </c>
       <c r="C7" t="n">
-        <v>4.7</v>
+        <v>1.55062259</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-11-04</t>
+          <t>2024-03-05</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>265.43</v>
+        <v>-93.5806</v>
       </c>
       <c r="C8" t="n">
-        <v>4.72</v>
+        <v>1.54126453</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-11-05</t>
+          <t>2024-03-06</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>363.68</v>
+        <v>-355.3623</v>
       </c>
       <c r="C9" t="n">
-        <v>4.76</v>
+        <v>1.5057283</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-11-06</t>
+          <t>2024-03-07</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>207.85</v>
+        <v>231.16</v>
       </c>
       <c r="C10" t="n">
-        <v>4.78</v>
+        <v>1.5288443</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-11-07</t>
+          <t>2024-03-08</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-106.95</v>
+        <v>106.56</v>
       </c>
       <c r="C11" t="n">
-        <v>4.77</v>
+        <v>1.5395003</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-11-10</t>
+          <t>2024-03-11</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-47.75</v>
+        <v>22.3752</v>
       </c>
       <c r="C12" t="n">
-        <v>4.76</v>
+        <v>1.54173782</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-11-11</t>
+          <t>2024-03-12</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>45.18</v>
+        <v>115.41</v>
       </c>
       <c r="C13" t="n">
-        <v>4.77</v>
+        <v>1.55327882</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-11-12</t>
+          <t>2024-03-13</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>52.39</v>
+        <v>112.2241</v>
       </c>
       <c r="C14" t="n">
-        <v>4.77</v>
+        <v>1.56450123</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-11-13</t>
+          <t>2024-03-14</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>133</v>
+        <v>-23.0761</v>
       </c>
       <c r="C15" t="n">
-        <v>4.79</v>
+        <v>1.56219362</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-11-14</t>
+          <t>2024-03-15</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>52.43</v>
+        <v>-97.60420000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>4.79</v>
+        <v>1.5524332</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-11-17</t>
+          <t>2024-03-18</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-23.22</v>
+        <v>-69.87179999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>4.79</v>
+        <v>1.54544602</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-11-18</t>
+          <t>2024-03-19</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>111.53</v>
+        <v>62.4768</v>
       </c>
       <c r="C18" t="n">
-        <v>4.8</v>
+        <v>1.5516937</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-11-19</t>
+          <t>2024-03-20</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-3.24</v>
+        <v>-207.9388</v>
       </c>
       <c r="C19" t="n">
-        <v>4.8</v>
+        <v>1.53089982</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-11-20</t>
+          <t>2024-03-21</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>138.9</v>
+        <v>132.0297</v>
       </c>
       <c r="C20" t="n">
-        <v>4.82</v>
+        <v>1.54410279</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-11-21</t>
+          <t>2024-03-22</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>111.84</v>
+        <v>227.59</v>
       </c>
       <c r="C21" t="n">
-        <v>4.83</v>
+        <v>1.56686179</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2024-03-25</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-207.28</v>
+        <v>-0.55</v>
       </c>
       <c r="C22" t="n">
-        <v>4.81</v>
+        <v>1.56680679</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-11-25</t>
+          <t>2024-03-26</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>248.88</v>
+        <v>146.9465</v>
       </c>
       <c r="C23" t="n">
-        <v>4.83</v>
+        <v>1.58150144</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-11-26</t>
+          <t>2024-03-27</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-20.79</v>
+        <v>110.9144</v>
       </c>
       <c r="C24" t="n">
-        <v>4.83</v>
+        <v>1.59259288</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-11-27</t>
+          <t>2024-03-28</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>65.97</v>
+        <v>149.1407</v>
       </c>
       <c r="C25" t="n">
-        <v>4.84</v>
+        <v>1.60750695</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-11-28</t>
+          <t>2024-04-02</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-129.47</v>
+        <v>52.7</v>
       </c>
       <c r="C26" t="n">
-        <v>4.82</v>
+        <v>1.61277695</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-12-01</t>
+          <t>2024-04-03</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>84.87</v>
+        <v>186.265</v>
       </c>
       <c r="C27" t="n">
-        <v>4.83</v>
+        <v>1.63140345</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2024-04-05</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>140.61</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>4.85</v>
+        <v>1.63140345</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-12-03</t>
+          <t>2024-04-08</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-202.41</v>
+        <v>445.178</v>
       </c>
       <c r="C29" t="n">
-        <v>4.82</v>
+        <v>1.67592125</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2024-04-09</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-25.12</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>4.82</v>
+        <v>1.67592125</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-12-05</t>
+          <t>2024-04-10</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.68</v>
+        <v>92.15000000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>4.84</v>
+        <v>1.68513625</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-12-08</t>
+          <t>2024-04-11</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>212.74</v>
+        <v>-113.87</v>
       </c>
       <c r="C32" t="n">
-        <v>4.86</v>
+        <v>1.67374925</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-12-09</t>
+          <t>2024-04-12</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-61.3</v>
+        <v>23.3485</v>
       </c>
       <c r="C33" t="n">
-        <v>4.85</v>
+        <v>1.6760841</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-12-10</t>
+          <t>2024-04-15</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>208.59</v>
+        <v>70.6544</v>
       </c>
       <c r="C34" t="n">
-        <v>4.87</v>
+        <v>1.68314954</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-12-11</t>
+          <t>2024-04-16</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.72</v>
+        <v>29.98</v>
       </c>
       <c r="C35" t="n">
-        <v>4.88</v>
+        <v>1.68614754</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2024-04-17</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>58.72</v>
+        <v>-25.18</v>
       </c>
       <c r="C36" t="n">
-        <v>4.88</v>
+        <v>1.68362954</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-12-15</t>
+          <t>2024-04-18</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-109.39</v>
+        <v>-50.1019</v>
       </c>
       <c r="C37" t="n">
-        <v>4.87</v>
+        <v>1.67861935</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-12-16</t>
+          <t>2024-04-19</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-104.13</v>
+        <v>267.022</v>
       </c>
       <c r="C38" t="n">
-        <v>4.86</v>
+        <v>1.70532155</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-12-17</t>
+          <t>2024-04-22</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-12.92</v>
+        <v>145.53</v>
       </c>
       <c r="C39" t="n">
-        <v>4.86</v>
+        <v>1.71987455</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2024-04-23</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>164.58</v>
+        <v>-293.4393</v>
       </c>
       <c r="C40" t="n">
-        <v>4.88</v>
+        <v>1.69053062</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-12-19</t>
+          <t>2024-04-24</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>149.87</v>
+        <v>-43.7205</v>
       </c>
       <c r="C41" t="n">
-        <v>4.89</v>
+        <v>1.68615857</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-12-22</t>
+          <t>2024-04-25</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-40.45</v>
+        <v>36.97</v>
       </c>
       <c r="C42" t="n">
-        <v>4.89</v>
+        <v>1.68985557</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-12-23</t>
+          <t>2024-04-26</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>141.18</v>
+        <v>203.62</v>
       </c>
       <c r="C43" t="n">
-        <v>4.9</v>
+        <v>1.71021757</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-12-29</t>
+          <t>2024-04-29</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>58.91</v>
+        <v>-17.3857</v>
       </c>
       <c r="C44" t="n">
-        <v>4.91</v>
+        <v>1.708479</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-12-30</t>
+          <t>2024-04-30</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-32.34</v>
+        <v>84.5565</v>
       </c>
       <c r="C45" t="n">
-        <v>4.9</v>
+        <v>1.71693465</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2026-01-02</t>
+          <t>2024-05-02</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-40.07</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>4.9</v>
+        <v>1.71693465</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2026-01-05</t>
+          <t>2024-05-03</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>239.17</v>
+        <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>4.92</v>
+        <v>1.71693465</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2024-05-06</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>313.55</v>
+        <v>332.66</v>
       </c>
       <c r="C48" t="n">
-        <v>4.95</v>
+        <v>1.75020065</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2024-05-07</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-94.09</v>
+        <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>4.95</v>
+        <v>1.75020065</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2024-05-08</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>378</v>
+        <v>282.7666</v>
       </c>
       <c r="C50" t="n">
-        <v>4.98</v>
+        <v>1.77847731</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2026-01-12</t>
+          <t>2024-05-09</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>218.61</v>
+        <v>313.2505</v>
       </c>
       <c r="C51" t="n">
-        <v>5.01</v>
+        <v>1.80980236</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2024-05-10</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>76.31999999999999</v>
+        <v>310.8815</v>
       </c>
       <c r="C52" t="n">
-        <v>5.01</v>
+        <v>1.84089051</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2024-05-13</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-49.91</v>
+        <v>-217.9522</v>
       </c>
       <c r="C53" t="n">
-        <v>5.01</v>
+        <v>1.81909529</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2024-05-14</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-80.38</v>
+        <v>-89.8359</v>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>1.8101117</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2024-05-16</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>78.79000000000001</v>
+        <v>-86.7372</v>
       </c>
       <c r="C55" t="n">
-        <v>5.01</v>
+        <v>1.80143798</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2024-05-17</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>63.7</v>
+        <v>-154.8789</v>
       </c>
       <c r="C56" t="n">
-        <v>5.01</v>
+        <v>1.78595009</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>2024-05-20</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>118.49</v>
+        <v>-405.5314</v>
       </c>
       <c r="C57" t="n">
-        <v>5.03</v>
+        <v>1.74539695</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2024-05-21</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-5.3</v>
+        <v>-138.557</v>
       </c>
       <c r="C58" t="n">
-        <v>5.03</v>
+        <v>1.73154125</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2026-01-22</t>
+          <t>2024-05-22</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>118.62</v>
+        <v>-37.5652</v>
       </c>
       <c r="C59" t="n">
-        <v>5.04</v>
+        <v>1.72778473</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2024-05-23</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-60.74</v>
+        <v>822.2128</v>
       </c>
       <c r="C60" t="n">
-        <v>5.03</v>
+        <v>1.81000601</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2026-01-26</t>
+          <t>2024-05-24</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>330.34</v>
+        <v>98.0141</v>
       </c>
       <c r="C61" t="n">
-        <v>5.06</v>
+        <v>1.81980742</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2024-05-27</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>370.6</v>
+        <v>39.8325</v>
       </c>
       <c r="C62" t="n">
-        <v>5.1</v>
+        <v>1.82379067</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2024-05-28</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>214.87</v>
+        <v>157.217</v>
       </c>
       <c r="C63" t="n">
-        <v>5.12</v>
+        <v>1.83951237</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2024-05-29</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>19.09</v>
+        <v>168.7609</v>
       </c>
       <c r="C64" t="n">
-        <v>5.12</v>
+        <v>1.85638846</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2024-05-30</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-127.46</v>
+        <v>229.46</v>
       </c>
       <c r="C65" t="n">
-        <v>5.11</v>
+        <v>1.87933446</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2026-02-02</t>
+          <t>2024-05-31</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>374.92</v>
+        <v>77.65000000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>5.15</v>
+        <v>1.88709946</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2026-02-03</t>
+          <t>2024-06-03</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>205.83</v>
+        <v>119.03</v>
       </c>
       <c r="C67" t="n">
-        <v>5.17</v>
+        <v>1.89900246</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2024-06-04</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>210.4</v>
+        <v>-80.48</v>
       </c>
       <c r="C68" t="n">
-        <v>5.19</v>
+        <v>1.89095446</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2024-06-05</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>86.5</v>
+        <v>-37.6532</v>
       </c>
       <c r="C69" t="n">
-        <v>5.2</v>
+        <v>1.88718914</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2024-06-06</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>109.06</v>
+        <v>-50.7081</v>
       </c>
       <c r="C70" t="n">
-        <v>5.21</v>
+        <v>1.88211833</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2026-02-09</t>
+          <t>2024-06-07</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>385.37</v>
+        <v>-2.84</v>
       </c>
       <c r="C71" t="n">
-        <v>5.25</v>
+        <v>1.88183433</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2024-06-11</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>349.31</v>
+        <v>25.87</v>
       </c>
       <c r="C72" t="n">
-        <v>5.29</v>
+        <v>1.88442133</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2024-06-12</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>63.29</v>
+        <v>611.0036</v>
       </c>
       <c r="C73" t="n">
-        <v>5.29</v>
+        <v>1.94552169</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2024-06-13</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1.62</v>
+        <v>234.2932</v>
       </c>
       <c r="C74" t="n">
-        <v>5.29</v>
+        <v>1.96895101</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
+          <t>2024-06-14</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>135.071</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1.98245811</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>84.15000000000001</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1.99087311</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>91.39</v>
+      </c>
+      <c r="C77" t="n">
+        <v>2.00001211</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>90.26000000000001</v>
+      </c>
+      <c r="C78" t="n">
+        <v>2.00903811</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2024-06-20</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>104.3121</v>
+      </c>
+      <c r="C79" t="n">
+        <v>2.01946932</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2024-06-21</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>-164.91</v>
+      </c>
+      <c r="C80" t="n">
+        <v>2.00297832</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2024-06-24</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>160.8</v>
+      </c>
+      <c r="C81" t="n">
+        <v>2.01905832</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2024-06-25</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>7.8544</v>
+      </c>
+      <c r="C82" t="n">
+        <v>2.01984376</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2024-06-26</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>-10.43</v>
+      </c>
+      <c r="C83" t="n">
+        <v>2.01880076</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2024-06-27</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>44.34</v>
+      </c>
+      <c r="C84" t="n">
+        <v>2.02323476</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2024-06-28</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>-56.2039</v>
+      </c>
+      <c r="C85" t="n">
+        <v>2.01761437</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>232.22</v>
+      </c>
+      <c r="C86" t="n">
+        <v>2.04083637</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2024-07-03</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>88.91</v>
+      </c>
+      <c r="C87" t="n">
+        <v>2.04972737</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2024-07-04</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="C88" t="n">
+        <v>2.04978637</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2024-07-05</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>14.54</v>
+      </c>
+      <c r="C89" t="n">
+        <v>2.05124037</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2024-07-08</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>254.0225</v>
+      </c>
+      <c r="C90" t="n">
+        <v>2.07664262</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2024-07-09</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>-16.0185</v>
+      </c>
+      <c r="C91" t="n">
+        <v>2.07504077</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2024-07-10</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>-59.6012</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2.06908065</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2024-07-11</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="C93" t="n">
+        <v>2.07533065</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2024-07-12</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>-137.8246</v>
+      </c>
+      <c r="C94" t="n">
+        <v>2.06154819</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2024-07-15</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>-273.9431</v>
+      </c>
+      <c r="C95" t="n">
+        <v>2.03415388</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2024-07-16</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>-33.5878</v>
+      </c>
+      <c r="C96" t="n">
+        <v>2.0307951</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2024-07-17</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>77.78060000000001</v>
+      </c>
+      <c r="C97" t="n">
+        <v>2.03857316</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2024-07-18</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>-142.864</v>
+      </c>
+      <c r="C98" t="n">
+        <v>2.02428676</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2024-07-19</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>-108.4</v>
+      </c>
+      <c r="C99" t="n">
+        <v>2.01344676</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2024-07-22</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>83.15000000000001</v>
+      </c>
+      <c r="C100" t="n">
+        <v>2.02176176</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2024-07-23</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>-21.43</v>
+      </c>
+      <c r="C101" t="n">
+        <v>2.01961876</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2024-07-24</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>21.15</v>
+      </c>
+      <c r="C102" t="n">
+        <v>2.02173376</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>-21.7</v>
+      </c>
+      <c r="C103" t="n">
+        <v>2.01956376</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2024-07-26</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>-64.72</v>
+      </c>
+      <c r="C104" t="n">
+        <v>2.01309176</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2024-07-29</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>174.9983</v>
+      </c>
+      <c r="C105" t="n">
+        <v>2.03059159</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2024-07-30</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>-31.01</v>
+      </c>
+      <c r="C106" t="n">
+        <v>2.02749059</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2024-07-31</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>33.41</v>
+      </c>
+      <c r="C107" t="n">
+        <v>2.03083159</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2024-08-01</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>-20.55</v>
+      </c>
+      <c r="C108" t="n">
+        <v>2.02877659</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2024-08-02</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>23.4217</v>
+      </c>
+      <c r="C109" t="n">
+        <v>2.03111876</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>66.94</v>
+      </c>
+      <c r="C110" t="n">
+        <v>2.03781276</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2024-08-06</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>86.2013</v>
+      </c>
+      <c r="C111" t="n">
+        <v>2.04643289</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2024-08-07</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>75.3081</v>
+      </c>
+      <c r="C112" t="n">
+        <v>2.0539637</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2024-08-08</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>128.1</v>
+      </c>
+      <c r="C113" t="n">
+        <v>2.0667737</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2024-08-09</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>124.02</v>
+      </c>
+      <c r="C114" t="n">
+        <v>2.0791757</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2024-08-12</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>109.6292</v>
+      </c>
+      <c r="C115" t="n">
+        <v>2.09013862</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2024-08-13</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>-176.08</v>
+      </c>
+      <c r="C116" t="n">
+        <v>2.07253062</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2024-08-14</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>127.0224</v>
+      </c>
+      <c r="C117" t="n">
+        <v>2.08523286</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2024-08-15</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="C118" t="n">
+        <v>2.09344286</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2024-08-16</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>34.421</v>
+      </c>
+      <c r="C119" t="n">
+        <v>2.09688496</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2024-08-19</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>14.54</v>
+      </c>
+      <c r="C120" t="n">
+        <v>2.09833896</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2024-08-20</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>-103.66</v>
+      </c>
+      <c r="C121" t="n">
+        <v>2.08797296</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2024-08-21</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>-270.14</v>
+      </c>
+      <c r="C122" t="n">
+        <v>2.06095896</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2024-08-22</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>-81.29000000000001</v>
+      </c>
+      <c r="C123" t="n">
+        <v>2.05282996</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2024-08-23</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="C124" t="n">
+        <v>2.05401796</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2024-08-26</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>95.73009999999999</v>
+      </c>
+      <c r="C125" t="n">
+        <v>2.06359097</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2024-08-27</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>-54.49</v>
+      </c>
+      <c r="C126" t="n">
+        <v>2.05814197</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2024-08-28</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>-188.5708</v>
+      </c>
+      <c r="C127" t="n">
+        <v>2.03928489</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2024-08-29</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>-32.1199</v>
+      </c>
+      <c r="C128" t="n">
+        <v>2.0360729</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="C129" t="n">
+        <v>2.0364689</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>1056.3583</v>
+      </c>
+      <c r="C130" t="n">
+        <v>2.14210473</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>-257.25</v>
+      </c>
+      <c r="C131" t="n">
+        <v>2.11637973</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>2024-09-04</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>270.7978</v>
+      </c>
+      <c r="C132" t="n">
+        <v>2.14345951</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>2024-09-05</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>-82.53</v>
+      </c>
+      <c r="C133" t="n">
+        <v>2.13520651</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>-25.91</v>
+      </c>
+      <c r="C134" t="n">
+        <v>2.13261551</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>214.7873</v>
+      </c>
+      <c r="C135" t="n">
+        <v>2.15409424</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>2024-09-11</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>71.61</v>
+      </c>
+      <c r="C136" t="n">
+        <v>2.16125524</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>-93.81</v>
+      </c>
+      <c r="C137" t="n">
+        <v>2.15187424</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>41.52</v>
+      </c>
+      <c r="C138" t="n">
+        <v>2.15602624</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>0</v>
+      </c>
+      <c r="C139" t="n">
+        <v>2.15602624</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>2024-09-17</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>0</v>
+      </c>
+      <c r="C140" t="n">
+        <v>2.15602624</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>2024-09-19</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>-83.66</v>
+      </c>
+      <c r="C141" t="n">
+        <v>2.14766024</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>0</v>
+      </c>
+      <c r="C142" t="n">
+        <v>2.14766024</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>2024-09-23</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>-242.2236</v>
+      </c>
+      <c r="C143" t="n">
+        <v>2.12343788</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>-171.2262</v>
+      </c>
+      <c r="C144" t="n">
+        <v>2.10631526</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>157.96</v>
+      </c>
+      <c r="C145" t="n">
+        <v>2.12211126</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>2024-09-26</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>-102.9451</v>
+      </c>
+      <c r="C146" t="n">
+        <v>2.11181675</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>-131.6591</v>
+      </c>
+      <c r="C147" t="n">
+        <v>2.09865084</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>2024-09-30</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>-205.18</v>
+      </c>
+      <c r="C148" t="n">
+        <v>2.07813284</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>2024-10-02</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>0</v>
+      </c>
+      <c r="C149" t="n">
+        <v>2.07813284</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>2024-10-03</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>0</v>
+      </c>
+      <c r="C150" t="n">
+        <v>2.07813284</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>2024-10-04</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>0</v>
+      </c>
+      <c r="C151" t="n">
+        <v>2.07813284</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>2024-10-07</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>0</v>
+      </c>
+      <c r="C152" t="n">
+        <v>2.07813284</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>2024-10-08</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>-157.4874</v>
+      </c>
+      <c r="C153" t="n">
+        <v>2.0623841</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>2024-10-09</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>0</v>
+      </c>
+      <c r="C154" t="n">
+        <v>2.0623841</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>2024-10-10</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>177.4708</v>
+      </c>
+      <c r="C155" t="n">
+        <v>2.08013118</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>2024-10-14</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>57.7433</v>
+      </c>
+      <c r="C156" t="n">
+        <v>2.08590551</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>2024-10-15</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>186.7518</v>
+      </c>
+      <c r="C157" t="n">
+        <v>2.10458069</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>2024-10-16</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>382.03</v>
+      </c>
+      <c r="C158" t="n">
+        <v>2.14278369</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>2024-10-17</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>-48.4593</v>
+      </c>
+      <c r="C159" t="n">
+        <v>2.13793776</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>2024-10-18</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>125.85</v>
+      </c>
+      <c r="C160" t="n">
+        <v>2.15052276</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>2024-10-21</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>-97.0775</v>
+      </c>
+      <c r="C161" t="n">
+        <v>2.14081501</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>2024-10-22</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>191.22</v>
+      </c>
+      <c r="C162" t="n">
+        <v>2.15993701</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>2024-10-23</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>159.24</v>
+      </c>
+      <c r="C163" t="n">
+        <v>2.17586101</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>2024-10-24</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>287.43</v>
+      </c>
+      <c r="C164" t="n">
+        <v>2.20460401</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>486.2522</v>
+      </c>
+      <c r="C165" t="n">
+        <v>2.25322923</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>2024-10-28</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>294.63</v>
+      </c>
+      <c r="C166" t="n">
+        <v>2.28269223</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>2024-10-29</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>368.7159</v>
+      </c>
+      <c r="C167" t="n">
+        <v>2.31956382</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>2024-10-30</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="C168" t="n">
+        <v>2.31991882</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>2024-10-31</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>-94.6452</v>
+      </c>
+      <c r="C169" t="n">
+        <v>2.3104543</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>2024-11-01</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>-362.2226</v>
+      </c>
+      <c r="C170" t="n">
+        <v>2.27423204</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>2024-11-04</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>-54.5662</v>
+      </c>
+      <c r="C171" t="n">
+        <v>2.26877542</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>2024-11-05</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>-150.84</v>
+      </c>
+      <c r="C172" t="n">
+        <v>2.25369142</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>2024-11-06</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>-155.39</v>
+      </c>
+      <c r="C173" t="n">
+        <v>2.23815242</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>2024-11-07</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>-205.55</v>
+      </c>
+      <c r="C174" t="n">
+        <v>2.21759742</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>2024-11-08</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>57.08</v>
+      </c>
+      <c r="C175" t="n">
+        <v>2.22330542</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>2024-11-11</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>-46.76</v>
+      </c>
+      <c r="C176" t="n">
+        <v>2.21862942</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>2024-11-12</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>145.72</v>
+      </c>
+      <c r="C177" t="n">
+        <v>2.23320142</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>2024-11-13</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>229.6897</v>
+      </c>
+      <c r="C178" t="n">
+        <v>2.25617039</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>2024-11-14</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>141.13</v>
+      </c>
+      <c r="C179" t="n">
+        <v>2.27028339</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>2024-11-15</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>30.85</v>
+      </c>
+      <c r="C180" t="n">
+        <v>2.27336839</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>2024-11-18</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>185.52</v>
+      </c>
+      <c r="C181" t="n">
+        <v>2.29192039</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>2024-11-19</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>260.76</v>
+      </c>
+      <c r="C182" t="n">
+        <v>2.31799639</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>31.17</v>
+      </c>
+      <c r="C183" t="n">
+        <v>2.32111339</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>14.78</v>
+      </c>
+      <c r="C184" t="n">
+        <v>2.32259139</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>2024-11-22</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>140.24</v>
+      </c>
+      <c r="C185" t="n">
+        <v>2.33661539</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>2024-11-25</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="C186" t="n">
+        <v>2.33726439</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>2024-11-26</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>14.34</v>
+      </c>
+      <c r="C187" t="n">
+        <v>2.33869839</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>35.49</v>
+      </c>
+      <c r="C188" t="n">
+        <v>2.34224739</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>2024-11-28</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>20.6269</v>
+      </c>
+      <c r="C189" t="n">
+        <v>2.34431008</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>2024-11-29</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>95.8613</v>
+      </c>
+      <c r="C190" t="n">
+        <v>2.35389621</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>2024-12-02</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>273.28</v>
+      </c>
+      <c r="C191" t="n">
+        <v>2.38122421</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>2024-12-03</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>113.61</v>
+      </c>
+      <c r="C192" t="n">
+        <v>2.39258521</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>2024-12-04</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>-105.0806</v>
+      </c>
+      <c r="C193" t="n">
+        <v>2.38207715</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>2024-12-05</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>-252.67</v>
+      </c>
+      <c r="C194" t="n">
+        <v>2.35681015</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>2024-12-06</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>-75.3459</v>
+      </c>
+      <c r="C195" t="n">
+        <v>2.34927556</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>2024-12-09</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>-24.56</v>
+      </c>
+      <c r="C196" t="n">
+        <v>2.34681956</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>2024-12-10</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>-283.6472</v>
+      </c>
+      <c r="C197" t="n">
+        <v>2.31845484</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>32.2209</v>
+      </c>
+      <c r="C198" t="n">
+        <v>2.32167693</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>2024-12-12</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>47.78</v>
+      </c>
+      <c r="C199" t="n">
+        <v>2.32645493</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>2024-12-13</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>-42.9103</v>
+      </c>
+      <c r="C200" t="n">
+        <v>2.3221639</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>2024-12-16</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>-210.66</v>
+      </c>
+      <c r="C201" t="n">
+        <v>2.3010979</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>2024-12-17</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>259.07</v>
+      </c>
+      <c r="C202" t="n">
+        <v>2.3270049</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>2024-12-18</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>-1.21</v>
+      </c>
+      <c r="C203" t="n">
+        <v>2.3268839</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>2024-12-19</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>19.32</v>
+      </c>
+      <c r="C204" t="n">
+        <v>2.3288159</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>2024-12-20</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>-270.55</v>
+      </c>
+      <c r="C205" t="n">
+        <v>2.3017609</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>2024-12-23</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>26.0759</v>
+      </c>
+      <c r="C206" t="n">
+        <v>2.30436849</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>2024-12-24</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>0</v>
+      </c>
+      <c r="C207" t="n">
+        <v>2.30436849</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>2024-12-27</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>159.9582</v>
+      </c>
+      <c r="C208" t="n">
+        <v>2.32036431</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>2024-12-30</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>126.24</v>
+      </c>
+      <c r="C209" t="n">
+        <v>2.33298831</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>2024-12-31</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>0</v>
+      </c>
+      <c r="C210" t="n">
+        <v>2.33298831</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>2025-01-02</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>51.9437</v>
+      </c>
+      <c r="C211" t="n">
+        <v>2.33818268</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>2025-01-03</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>266.6552</v>
+      </c>
+      <c r="C212" t="n">
+        <v>2.3648482</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>2025-01-06</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>275.5203</v>
+      </c>
+      <c r="C213" t="n">
+        <v>2.39240023</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>2025-01-07</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>200.5386</v>
+      </c>
+      <c r="C214" t="n">
+        <v>2.41245409</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>2025-01-08</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>26.43</v>
+      </c>
+      <c r="C215" t="n">
+        <v>2.41509709</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>2025-01-09</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>-97.78</v>
+      </c>
+      <c r="C216" t="n">
+        <v>2.40531909</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>2025-01-10</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>61.17</v>
+      </c>
+      <c r="C217" t="n">
+        <v>2.41143609</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>2025-01-13</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>180.894</v>
+      </c>
+      <c r="C218" t="n">
+        <v>2.42952549</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>2025-01-14</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>-2.57</v>
+      </c>
+      <c r="C219" t="n">
+        <v>2.42926849</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>2025-01-15</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>88.89</v>
+      </c>
+      <c r="C220" t="n">
+        <v>2.43815749</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>2025-01-16</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>10.77</v>
+      </c>
+      <c r="C221" t="n">
+        <v>2.43923449</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>2025-01-17</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>136.77</v>
+      </c>
+      <c r="C222" t="n">
+        <v>2.45291149</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>2025-01-20</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>45.01</v>
+      </c>
+      <c r="C223" t="n">
+        <v>2.45741249</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>2025-01-21</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>81.3355</v>
+      </c>
+      <c r="C224" t="n">
+        <v>2.46554604</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>2025-01-22</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>-46.7765</v>
+      </c>
+      <c r="C225" t="n">
+        <v>2.46086839</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>2025-01-23</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>-46.2875</v>
+      </c>
+      <c r="C226" t="n">
+        <v>2.45623964</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>2025-01-24</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>86.26000000000001</v>
+      </c>
+      <c r="C227" t="n">
+        <v>2.46486564</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>2025-01-27</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>194.3161</v>
+      </c>
+      <c r="C228" t="n">
+        <v>2.48429725</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>2025-01-28</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>0</v>
+      </c>
+      <c r="C229" t="n">
+        <v>2.48429725</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>2025-02-03</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>0</v>
+      </c>
+      <c r="C230" t="n">
+        <v>2.48429725</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>2025-02-04</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>0</v>
+      </c>
+      <c r="C231" t="n">
+        <v>2.48429725</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>2025-02-05</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>-160.7266</v>
+      </c>
+      <c r="C232" t="n">
+        <v>2.46822459</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>0</v>
+      </c>
+      <c r="C233" t="n">
+        <v>2.46822459</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>2025-02-07</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>56.4694</v>
+      </c>
+      <c r="C234" t="n">
+        <v>2.47387153</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>2025-02-10</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>17.4964</v>
+      </c>
+      <c r="C235" t="n">
+        <v>2.47562117</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>2025-02-11</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>194.5106</v>
+      </c>
+      <c r="C236" t="n">
+        <v>2.49507223</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>2025-02-12</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>600.7619999999999</v>
+      </c>
+      <c r="C237" t="n">
+        <v>2.55514843</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>162.38</v>
+      </c>
+      <c r="C238" t="n">
+        <v>2.57138643</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>2025-02-14</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>100.1893</v>
+      </c>
+      <c r="C239" t="n">
+        <v>2.58140536</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>2025-02-17</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>-241.95</v>
+      </c>
+      <c r="C240" t="n">
+        <v>2.55721036</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>2025-02-18</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>-123.7576</v>
+      </c>
+      <c r="C241" t="n">
+        <v>2.5448346</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>2025-02-19</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>-40.0986</v>
+      </c>
+      <c r="C242" t="n">
+        <v>2.54082474</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>2025-02-20</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="C243" t="n">
+        <v>2.54399474</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>2025-02-21</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>597.2182</v>
+      </c>
+      <c r="C244" t="n">
+        <v>2.60371656</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>223.6481</v>
+      </c>
+      <c r="C245" t="n">
+        <v>2.62608137</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>2025-02-25</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>490.82</v>
+      </c>
+      <c r="C246" t="n">
+        <v>2.67516337</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>2025-02-26</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>410.6323</v>
+      </c>
+      <c r="C247" t="n">
+        <v>2.7162266</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>2025-02-27</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>969.7103</v>
+      </c>
+      <c r="C248" t="n">
+        <v>2.81319763</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>2025-02-28</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>1038.208</v>
+      </c>
+      <c r="C249" t="n">
+        <v>2.91701843</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>2025-03-03</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>210.5945</v>
+      </c>
+      <c r="C250" t="n">
+        <v>2.93807788</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>2025-03-04</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>-174.0294</v>
+      </c>
+      <c r="C251" t="n">
+        <v>2.92067494</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>2025-03-05</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>-86.4644</v>
+      </c>
+      <c r="C252" t="n">
+        <v>2.9120285</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>2025-03-06</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>391.152</v>
+      </c>
+      <c r="C253" t="n">
+        <v>2.9511437</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>2025-03-07</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>115.8595</v>
+      </c>
+      <c r="C254" t="n">
+        <v>2.96272965</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>2025-03-10</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>380.79</v>
+      </c>
+      <c r="C255" t="n">
+        <v>3.00080865</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>2025-03-11</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>-39.4678</v>
+      </c>
+      <c r="C256" t="n">
+        <v>2.99686187</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>2025-03-12</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>249.15</v>
+      </c>
+      <c r="C257" t="n">
+        <v>3.02177687</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>2025-03-13</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>73.81</v>
+      </c>
+      <c r="C258" t="n">
+        <v>3.02915787</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>2025-03-14</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>197.07</v>
+      </c>
+      <c r="C259" t="n">
+        <v>3.04886487</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>2025-03-17</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>31.3056</v>
+      </c>
+      <c r="C260" t="n">
+        <v>3.05199543</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>2025-03-18</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>-87.2655</v>
+      </c>
+      <c r="C261" t="n">
+        <v>3.04326888</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>2025-03-19</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>778.3074</v>
+      </c>
+      <c r="C262" t="n">
+        <v>3.12109962</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>2025-03-20</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>-65.6347</v>
+      </c>
+      <c r="C263" t="n">
+        <v>3.11453615</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>2025-03-21</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>590.11</v>
+      </c>
+      <c r="C264" t="n">
+        <v>3.17354715</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>2025-03-24</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>489.0811</v>
+      </c>
+      <c r="C265" t="n">
+        <v>3.22245526</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>2025-03-25</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>378.8343</v>
+      </c>
+      <c r="C266" t="n">
+        <v>3.26033869</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>2025-03-26</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>167.92</v>
+      </c>
+      <c r="C267" t="n">
+        <v>3.27713069</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>2025-03-27</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>464.7254</v>
+      </c>
+      <c r="C268" t="n">
+        <v>3.32360323</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>2025-03-28</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>124.2911</v>
+      </c>
+      <c r="C269" t="n">
+        <v>3.33603234</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>2025-03-31</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>315.72</v>
+      </c>
+      <c r="C270" t="n">
+        <v>3.36760434</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>168.9536</v>
+      </c>
+      <c r="C271" t="n">
+        <v>3.3844997</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>201.737</v>
+      </c>
+      <c r="C272" t="n">
+        <v>3.4046734</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>2025-04-03</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>241.4518</v>
+      </c>
+      <c r="C273" t="n">
+        <v>3.42881858</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>2025-04-07</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>240.1805</v>
+      </c>
+      <c r="C274" t="n">
+        <v>3.45283663</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>2025-04-08</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>275.58</v>
+      </c>
+      <c r="C275" t="n">
+        <v>3.48039463</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>2025-04-09</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>103.88</v>
+      </c>
+      <c r="C276" t="n">
+        <v>3.49078263</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>329.9463</v>
+      </c>
+      <c r="C277" t="n">
+        <v>3.52377726</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>505.3581</v>
+      </c>
+      <c r="C278" t="n">
+        <v>3.57431307</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>2025-04-14</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>37.1664</v>
+      </c>
+      <c r="C279" t="n">
+        <v>3.57802971</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>-134.1534</v>
+      </c>
+      <c r="C280" t="n">
+        <v>3.56461437</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>2025-04-16</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>-6.2968</v>
+      </c>
+      <c r="C281" t="n">
+        <v>3.56398469</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>2025-04-17</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>-46.9584</v>
+      </c>
+      <c r="C282" t="n">
+        <v>3.55928885</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>2025-04-22</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>-189.9939</v>
+      </c>
+      <c r="C283" t="n">
+        <v>3.54028946</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>2025-04-23</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="C284" t="n">
+        <v>3.54065246</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>2025-04-24</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>-57.14</v>
+      </c>
+      <c r="C285" t="n">
+        <v>3.53493846</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>2025-04-25</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>51.8866</v>
+      </c>
+      <c r="C286" t="n">
+        <v>3.54012712</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>2025-04-28</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>-92.6558</v>
+      </c>
+      <c r="C287" t="n">
+        <v>3.53086154</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>2025-04-29</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>-70.7269</v>
+      </c>
+      <c r="C288" t="n">
+        <v>3.52378885</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>2025-04-30</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="C289" t="n">
+        <v>3.52376685</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>2025-05-02</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>0</v>
+      </c>
+      <c r="C290" t="n">
+        <v>3.52376685</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>2025-05-06</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>77.1537</v>
+      </c>
+      <c r="C291" t="n">
+        <v>3.53148222</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>2025-05-07</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>0</v>
+      </c>
+      <c r="C292" t="n">
+        <v>3.53148222</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>2025-05-08</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>153.27</v>
+      </c>
+      <c r="C293" t="n">
+        <v>3.54680922</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>2025-05-09</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>-95.49630000000001</v>
+      </c>
+      <c r="C294" t="n">
+        <v>3.53725959</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>2025-05-12</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>-125.4454</v>
+      </c>
+      <c r="C295" t="n">
+        <v>3.52471505</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>55.1284</v>
+      </c>
+      <c r="C296" t="n">
+        <v>3.53022789</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>-266.1156</v>
+      </c>
+      <c r="C297" t="n">
+        <v>3.50361633</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>2025-05-15</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>153.2334</v>
+      </c>
+      <c r="C298" t="n">
+        <v>3.51893967</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>-120.58</v>
+      </c>
+      <c r="C299" t="n">
+        <v>3.50688167</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>-40.7</v>
+      </c>
+      <c r="C300" t="n">
+        <v>3.50281167</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>2025-05-20</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>57.69</v>
+      </c>
+      <c r="C301" t="n">
+        <v>3.50858067</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>2025-05-21</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>73.8942</v>
+      </c>
+      <c r="C302" t="n">
+        <v>3.51597009</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>2025-05-22</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>26.43</v>
+      </c>
+      <c r="C303" t="n">
+        <v>3.51861309</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>85.94</v>
+      </c>
+      <c r="C304" t="n">
+        <v>3.52720709</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>2025-05-26</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>103.27</v>
+      </c>
+      <c r="C305" t="n">
+        <v>3.53753409</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>2025-05-27</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>-11.37</v>
+      </c>
+      <c r="C306" t="n">
+        <v>3.53639709</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>2025-05-28</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>-190.5815</v>
+      </c>
+      <c r="C307" t="n">
+        <v>3.51733894</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>2025-05-29</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>-122.95</v>
+      </c>
+      <c r="C308" t="n">
+        <v>3.50504394</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>2025-05-30</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>23.3244</v>
+      </c>
+      <c r="C309" t="n">
+        <v>3.50737638</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>0</v>
+      </c>
+      <c r="C310" t="n">
+        <v>3.50737638</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>2025-06-03</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>283.1145</v>
+      </c>
+      <c r="C311" t="n">
+        <v>3.53568783</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>2025-06-04</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>0</v>
+      </c>
+      <c r="C312" t="n">
+        <v>3.53568783</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>243.8344</v>
+      </c>
+      <c r="C313" t="n">
+        <v>3.56007127</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>2025-06-06</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>279.3723</v>
+      </c>
+      <c r="C314" t="n">
+        <v>3.5880085</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>2025-06-09</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>259.6575</v>
+      </c>
+      <c r="C315" t="n">
+        <v>3.61397425</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>-200.8481</v>
+      </c>
+      <c r="C316" t="n">
+        <v>3.59388944</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>2025-06-11</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>442.76</v>
+      </c>
+      <c r="C317" t="n">
+        <v>3.63816544</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>2025-06-12</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>267.06</v>
+      </c>
+      <c r="C318" t="n">
+        <v>3.66487144</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>2025-06-13</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>282.27</v>
+      </c>
+      <c r="C319" t="n">
+        <v>3.69309844</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>81.8026</v>
+      </c>
+      <c r="C320" t="n">
+        <v>3.7012787</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>-28.9226</v>
+      </c>
+      <c r="C321" t="n">
+        <v>3.69838644</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>178.45</v>
+      </c>
+      <c r="C322" t="n">
+        <v>3.71623144</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>2025-06-19</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>61.01</v>
+      </c>
+      <c r="C323" t="n">
+        <v>3.72233244</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>2025-06-20</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>89.51000000000001</v>
+      </c>
+      <c r="C324" t="n">
+        <v>3.73128344</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>-65.05</v>
+      </c>
+      <c r="C325" t="n">
+        <v>3.72477844</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>239.69</v>
+      </c>
+      <c r="C326" t="n">
+        <v>3.74874744</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>2025-06-25</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>261.9617</v>
+      </c>
+      <c r="C327" t="n">
+        <v>3.77494361</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>2025-06-26</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>202.91</v>
+      </c>
+      <c r="C328" t="n">
+        <v>3.79523461</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>46.88</v>
+      </c>
+      <c r="C329" t="n">
+        <v>3.79992261</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>100.86</v>
+      </c>
+      <c r="C330" t="n">
+        <v>3.81000861</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>-38.3443</v>
+      </c>
+      <c r="C331" t="n">
+        <v>3.80617418</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>2025-07-03</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>388.68</v>
+      </c>
+      <c r="C332" t="n">
+        <v>3.84504218</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>2025-07-04</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>246.5152</v>
+      </c>
+      <c r="C333" t="n">
+        <v>3.8696937</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>2025-07-07</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>95.736</v>
+      </c>
+      <c r="C334" t="n">
+        <v>3.8792673</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>319</v>
+      </c>
+      <c r="C335" t="n">
+        <v>3.9111673</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>2025-07-09</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>408.9578</v>
+      </c>
+      <c r="C336" t="n">
+        <v>3.95206308</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>114.35</v>
+      </c>
+      <c r="C337" t="n">
+        <v>3.96349808</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>2025-07-11</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>116.3517</v>
+      </c>
+      <c r="C338" t="n">
+        <v>3.97513325</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>205.66</v>
+      </c>
+      <c r="C339" t="n">
+        <v>3.99569925</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>18.9427</v>
+      </c>
+      <c r="C340" t="n">
+        <v>3.99759352</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>228.94</v>
+      </c>
+      <c r="C341" t="n">
+        <v>4.02048752</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>2025-07-17</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>-101.9856</v>
+      </c>
+      <c r="C342" t="n">
+        <v>4.01028896</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>-188.6038</v>
+      </c>
+      <c r="C343" t="n">
+        <v>3.99142858</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>2025-07-21</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>57.303</v>
+      </c>
+      <c r="C344" t="n">
+        <v>3.99715888</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="C345" t="n">
+        <v>3.99813788</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>-31.6362</v>
+      </c>
+      <c r="C346" t="n">
+        <v>3.99497426</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>2025-07-24</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>-58.0574</v>
+      </c>
+      <c r="C347" t="n">
+        <v>3.98916852</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>-22.1003</v>
+      </c>
+      <c r="C348" t="n">
+        <v>3.98695849</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>2025-07-28</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>-39.1248</v>
+      </c>
+      <c r="C349" t="n">
+        <v>3.98304601</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>2025-07-29</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>-2.7333</v>
+      </c>
+      <c r="C350" t="n">
+        <v>3.98277268</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>2025-07-30</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="C351" t="n">
+        <v>3.98295268</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>215.035</v>
+      </c>
+      <c r="C352" t="n">
+        <v>4.00445618</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>1951.3404</v>
+      </c>
+      <c r="C353" t="n">
+        <v>4.19959022</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>2025-08-04</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>621.35</v>
+      </c>
+      <c r="C354" t="n">
+        <v>4.26172522</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>2025-08-05</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>294.5191</v>
+      </c>
+      <c r="C355" t="n">
+        <v>4.29117713</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>2025-08-06</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>215.41</v>
+      </c>
+      <c r="C356" t="n">
+        <v>4.31271813</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>2025-08-07</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>564.7006</v>
+      </c>
+      <c r="C357" t="n">
+        <v>4.36918819</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>2025-08-08</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>114.8206</v>
+      </c>
+      <c r="C358" t="n">
+        <v>4.38067025</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>2025-08-11</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>-128.763</v>
+      </c>
+      <c r="C359" t="n">
+        <v>4.36779395</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>2025-08-12</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>307.45</v>
+      </c>
+      <c r="C360" t="n">
+        <v>4.39853895</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>-286.3838</v>
+      </c>
+      <c r="C361" t="n">
+        <v>4.36990057</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>-342.1407</v>
+      </c>
+      <c r="C362" t="n">
+        <v>4.3356865</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>379.6996</v>
+      </c>
+      <c r="C363" t="n">
+        <v>4.37365646</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>2025-08-18</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>360.9204</v>
+      </c>
+      <c r="C364" t="n">
+        <v>4.4097485</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>2025-08-19</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>411.9801</v>
+      </c>
+      <c r="C365" t="n">
+        <v>4.45094651</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>2025-08-20</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>-52.3529</v>
+      </c>
+      <c r="C366" t="n">
+        <v>4.44571122</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>2025-08-21</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>608.0599999999999</v>
+      </c>
+      <c r="C367" t="n">
+        <v>4.50651722</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>63.8193</v>
+      </c>
+      <c r="C368" t="n">
+        <v>4.51289915</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>-331.1242</v>
+      </c>
+      <c r="C369" t="n">
+        <v>4.47978673</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>165.12</v>
+      </c>
+      <c r="C370" t="n">
+        <v>4.49629873</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>90.43600000000001</v>
+      </c>
+      <c r="C371" t="n">
+        <v>4.50534233</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>-286.9989</v>
+      </c>
+      <c r="C372" t="n">
+        <v>4.47664244</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>119.362</v>
+      </c>
+      <c r="C373" t="n">
+        <v>4.48857864</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>144.5479</v>
+      </c>
+      <c r="C374" t="n">
+        <v>4.50303343</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>273.69</v>
+      </c>
+      <c r="C375" t="n">
+        <v>4.53040243</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>98.79600000000001</v>
+      </c>
+      <c r="C376" t="n">
+        <v>4.54028203</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="B377" t="n">
+        <v>228.1582</v>
+      </c>
+      <c r="C377" t="n">
+        <v>4.56309785</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>183.3109</v>
+      </c>
+      <c r="C378" t="n">
+        <v>4.58142894</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>489.43</v>
+      </c>
+      <c r="C379" t="n">
+        <v>4.63037194</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>-126.89</v>
+      </c>
+      <c r="C380" t="n">
+        <v>4.61768294</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>56.6906</v>
+      </c>
+      <c r="C381" t="n">
+        <v>4.623352</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B382" t="n">
+        <v>213.4319</v>
+      </c>
+      <c r="C382" t="n">
+        <v>4.64469519</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
+        <v>348.5947</v>
+      </c>
+      <c r="C383" t="n">
+        <v>4.67955466</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
+        <v>229.7298</v>
+      </c>
+      <c r="C384" t="n">
+        <v>4.70252764</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>-310.26</v>
+      </c>
+      <c r="C385" t="n">
+        <v>4.67150164</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>-307.87</v>
+      </c>
+      <c r="C386" t="n">
+        <v>4.64071464</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
+        <v>-60.26</v>
+      </c>
+      <c r="C387" t="n">
+        <v>4.63468864</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>-4.57</v>
+      </c>
+      <c r="C388" t="n">
+        <v>4.63423164</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>2025-09-22</t>
+        </is>
+      </c>
+      <c r="B389" t="n">
+        <v>91.4117</v>
+      </c>
+      <c r="C389" t="n">
+        <v>4.64337281</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>2025-09-23</t>
+        </is>
+      </c>
+      <c r="B390" t="n">
+        <v>-80.77</v>
+      </c>
+      <c r="C390" t="n">
+        <v>4.63529581</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B391" t="n">
+        <v>-86.6123</v>
+      </c>
+      <c r="C391" t="n">
+        <v>4.62663458</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>2025-09-25</t>
+        </is>
+      </c>
+      <c r="B392" t="n">
+        <v>129.6336</v>
+      </c>
+      <c r="C392" t="n">
+        <v>4.63959794</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="B393" t="n">
+        <v>105.4138</v>
+      </c>
+      <c r="C393" t="n">
+        <v>4.65013932</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="B394" t="n">
+        <v>239.5149</v>
+      </c>
+      <c r="C394" t="n">
+        <v>4.67409081</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B395" t="n">
+        <v>581.8579999999999</v>
+      </c>
+      <c r="C395" t="n">
+        <v>4.73227661</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>2025-10-02</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>0</v>
+      </c>
+      <c r="C396" t="n">
+        <v>4.73227661</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>2025-10-03</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
+        <v>0</v>
+      </c>
+      <c r="C397" t="n">
+        <v>4.73227661</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>2025-10-06</t>
+        </is>
+      </c>
+      <c r="B398" t="n">
+        <v>0</v>
+      </c>
+      <c r="C398" t="n">
+        <v>4.73227661</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>2025-10-08</t>
+        </is>
+      </c>
+      <c r="B399" t="n">
+        <v>0</v>
+      </c>
+      <c r="C399" t="n">
+        <v>4.73227661</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>2025-10-09</t>
+        </is>
+      </c>
+      <c r="B400" t="n">
+        <v>889.2691</v>
+      </c>
+      <c r="C400" t="n">
+        <v>4.82120352</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="B401" t="n">
+        <v>0</v>
+      </c>
+      <c r="C401" t="n">
+        <v>4.82120352</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>2025-10-13</t>
+        </is>
+      </c>
+      <c r="B402" t="n">
+        <v>-23.0673</v>
+      </c>
+      <c r="C402" t="n">
+        <v>4.81889679</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>2025-10-14</t>
+        </is>
+      </c>
+      <c r="B403" t="n">
+        <v>121.65</v>
+      </c>
+      <c r="C403" t="n">
+        <v>4.83106179</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>2025-10-15</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>196.2149</v>
+      </c>
+      <c r="C404" t="n">
+        <v>4.85068328</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>2025-10-16</t>
+        </is>
+      </c>
+      <c r="B405" t="n">
+        <v>8.7127</v>
+      </c>
+      <c r="C405" t="n">
+        <v>4.85155455</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>2025-10-17</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>1.3346</v>
+      </c>
+      <c r="C406" t="n">
+        <v>4.85168801</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>2025-10-20</t>
+        </is>
+      </c>
+      <c r="B407" t="n">
+        <v>137.7498</v>
+      </c>
+      <c r="C407" t="n">
+        <v>4.86546299</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>2025-10-21</t>
+        </is>
+      </c>
+      <c r="B408" t="n">
+        <v>291.84</v>
+      </c>
+      <c r="C408" t="n">
+        <v>4.89464699</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B409" t="n">
+        <v>-93.64</v>
+      </c>
+      <c r="C409" t="n">
+        <v>4.88528299</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>2025-10-23</t>
+        </is>
+      </c>
+      <c r="B410" t="n">
+        <v>-204.5961</v>
+      </c>
+      <c r="C410" t="n">
+        <v>4.86482338</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="B411" t="n">
+        <v>-15.5542</v>
+      </c>
+      <c r="C411" t="n">
+        <v>4.86326796</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="B412" t="n">
+        <v>49.31</v>
+      </c>
+      <c r="C412" t="n">
+        <v>4.86819896</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>2025-10-28</t>
+        </is>
+      </c>
+      <c r="B413" t="n">
+        <v>-184.0764</v>
+      </c>
+      <c r="C413" t="n">
+        <v>4.84979132</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="B414" t="n">
+        <v>-974.8653</v>
+      </c>
+      <c r="C414" t="n">
+        <v>4.75230479</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="B415" t="n">
+        <v>-346.1448</v>
+      </c>
+      <c r="C415" t="n">
+        <v>4.71769031</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>2025-11-03</t>
+        </is>
+      </c>
+      <c r="B416" t="n">
+        <v>-182.27</v>
+      </c>
+      <c r="C416" t="n">
+        <v>4.69946331</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="B417" t="n">
+        <v>265.4329</v>
+      </c>
+      <c r="C417" t="n">
+        <v>4.7260066</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="B418" t="n">
+        <v>363.68</v>
+      </c>
+      <c r="C418" t="n">
+        <v>4.7623746</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>2025-11-06</t>
+        </is>
+      </c>
+      <c r="B419" t="n">
+        <v>207.8457</v>
+      </c>
+      <c r="C419" t="n">
+        <v>4.78315917</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="B420" t="n">
+        <v>-106.95</v>
+      </c>
+      <c r="C420" t="n">
+        <v>4.77246417</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>2025-11-10</t>
+        </is>
+      </c>
+      <c r="B421" t="n">
+        <v>-47.7544</v>
+      </c>
+      <c r="C421" t="n">
+        <v>4.76768873</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>2025-11-11</t>
+        </is>
+      </c>
+      <c r="B422" t="n">
+        <v>45.1767</v>
+      </c>
+      <c r="C422" t="n">
+        <v>4.7722064</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="B423" t="n">
+        <v>52.39</v>
+      </c>
+      <c r="C423" t="n">
+        <v>4.7774454</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>2025-11-13</t>
+        </is>
+      </c>
+      <c r="B424" t="n">
+        <v>132.9978</v>
+      </c>
+      <c r="C424" t="n">
+        <v>4.79074518</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>2025-11-14</t>
+        </is>
+      </c>
+      <c r="B425" t="n">
+        <v>52.43</v>
+      </c>
+      <c r="C425" t="n">
+        <v>4.79598818</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>2025-11-17</t>
+        </is>
+      </c>
+      <c r="B426" t="n">
+        <v>-23.22</v>
+      </c>
+      <c r="C426" t="n">
+        <v>4.79366618</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>2025-11-18</t>
+        </is>
+      </c>
+      <c r="B427" t="n">
+        <v>111.5349</v>
+      </c>
+      <c r="C427" t="n">
+        <v>4.80481967</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>2025-11-19</t>
+        </is>
+      </c>
+      <c r="B428" t="n">
+        <v>-3.24</v>
+      </c>
+      <c r="C428" t="n">
+        <v>4.80449567</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>2025-11-20</t>
+        </is>
+      </c>
+      <c r="B429" t="n">
+        <v>138.8981</v>
+      </c>
+      <c r="C429" t="n">
+        <v>4.81838548</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="B430" t="n">
+        <v>111.8441</v>
+      </c>
+      <c r="C430" t="n">
+        <v>4.82956989</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>2025-11-24</t>
+        </is>
+      </c>
+      <c r="B431" t="n">
+        <v>-207.28</v>
+      </c>
+      <c r="C431" t="n">
+        <v>4.80884189</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>2025-11-25</t>
+        </is>
+      </c>
+      <c r="B432" t="n">
+        <v>248.88</v>
+      </c>
+      <c r="C432" t="n">
+        <v>4.83372989</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>2025-11-26</t>
+        </is>
+      </c>
+      <c r="B433" t="n">
+        <v>-20.79</v>
+      </c>
+      <c r="C433" t="n">
+        <v>4.83165089</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>2025-11-27</t>
+        </is>
+      </c>
+      <c r="B434" t="n">
+        <v>65.97</v>
+      </c>
+      <c r="C434" t="n">
+        <v>4.83824789</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="B435" t="n">
+        <v>-129.47</v>
+      </c>
+      <c r="C435" t="n">
+        <v>4.82530089</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
+        </is>
+      </c>
+      <c r="B436" t="n">
+        <v>84.87</v>
+      </c>
+      <c r="C436" t="n">
+        <v>4.83378789</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>2025-12-02</t>
+        </is>
+      </c>
+      <c r="B437" t="n">
+        <v>140.61</v>
+      </c>
+      <c r="C437" t="n">
+        <v>4.84784889</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B438" t="n">
+        <v>-202.4053</v>
+      </c>
+      <c r="C438" t="n">
+        <v>4.82760836</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B439" t="n">
+        <v>-25.1242</v>
+      </c>
+      <c r="C439" t="n">
+        <v>4.82509594</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>2025-12-05</t>
+        </is>
+      </c>
+      <c r="B440" t="n">
+        <v>132.68</v>
+      </c>
+      <c r="C440" t="n">
+        <v>4.83836394</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>2025-12-08</t>
+        </is>
+      </c>
+      <c r="B441" t="n">
+        <v>212.74</v>
+      </c>
+      <c r="C441" t="n">
+        <v>4.85963794</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>2025-12-09</t>
+        </is>
+      </c>
+      <c r="B442" t="n">
+        <v>-61.2991</v>
+      </c>
+      <c r="C442" t="n">
+        <v>4.85350803</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>2025-12-10</t>
+        </is>
+      </c>
+      <c r="B443" t="n">
+        <v>208.5898</v>
+      </c>
+      <c r="C443" t="n">
+        <v>4.87436701</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>2025-12-11</t>
+        </is>
+      </c>
+      <c r="B444" t="n">
+        <v>46.72</v>
+      </c>
+      <c r="C444" t="n">
+        <v>4.87903901</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>2025-12-12</t>
+        </is>
+      </c>
+      <c r="B445" t="n">
+        <v>58.72</v>
+      </c>
+      <c r="C445" t="n">
+        <v>4.88491101</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>2025-12-15</t>
+        </is>
+      </c>
+      <c r="B446" t="n">
+        <v>-109.3859</v>
+      </c>
+      <c r="C446" t="n">
+        <v>4.87397242</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>2025-12-16</t>
+        </is>
+      </c>
+      <c r="B447" t="n">
+        <v>-104.13</v>
+      </c>
+      <c r="C447" t="n">
+        <v>4.86355942</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>2025-12-17</t>
+        </is>
+      </c>
+      <c r="B448" t="n">
+        <v>-12.92</v>
+      </c>
+      <c r="C448" t="n">
+        <v>4.86226742</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>2025-12-18</t>
+        </is>
+      </c>
+      <c r="B449" t="n">
+        <v>164.58</v>
+      </c>
+      <c r="C449" t="n">
+        <v>4.87872542</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>2025-12-19</t>
+        </is>
+      </c>
+      <c r="B450" t="n">
+        <v>149.8716</v>
+      </c>
+      <c r="C450" t="n">
+        <v>4.89371258</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>2025-12-22</t>
+        </is>
+      </c>
+      <c r="B451" t="n">
+        <v>-40.45</v>
+      </c>
+      <c r="C451" t="n">
+        <v>4.88966758</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>2025-12-23</t>
+        </is>
+      </c>
+      <c r="B452" t="n">
+        <v>141.18</v>
+      </c>
+      <c r="C452" t="n">
+        <v>4.90378558</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>2025-12-24</t>
+        </is>
+      </c>
+      <c r="B453" t="n">
+        <v>0</v>
+      </c>
+      <c r="C453" t="n">
+        <v>4.90378558</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>2025-12-29</t>
+        </is>
+      </c>
+      <c r="B454" t="n">
+        <v>58.91</v>
+      </c>
+      <c r="C454" t="n">
+        <v>4.90967658</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="B455" t="n">
+        <v>-32.34</v>
+      </c>
+      <c r="C455" t="n">
+        <v>4.90644258</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>2025-12-31</t>
+        </is>
+      </c>
+      <c r="B456" t="n">
+        <v>0</v>
+      </c>
+      <c r="C456" t="n">
+        <v>4.90644258</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>2026-01-02</t>
+        </is>
+      </c>
+      <c r="B457" t="n">
+        <v>0</v>
+      </c>
+      <c r="C457" t="n">
+        <v>4.90644258</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>2026-01-05</t>
+        </is>
+      </c>
+      <c r="B458" t="n">
+        <v>199.0978</v>
+      </c>
+      <c r="C458" t="n">
+        <v>4.92635236</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>2026-01-06</t>
+        </is>
+      </c>
+      <c r="B459" t="n">
+        <v>0</v>
+      </c>
+      <c r="C459" t="n">
+        <v>4.92635236</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>2026-01-07</t>
+        </is>
+      </c>
+      <c r="B460" t="n">
+        <v>313.55</v>
+      </c>
+      <c r="C460" t="n">
+        <v>4.95770736</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>2026-01-08</t>
+        </is>
+      </c>
+      <c r="B461" t="n">
+        <v>-94.0878</v>
+      </c>
+      <c r="C461" t="n">
+        <v>4.94829858</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>2026-01-09</t>
+        </is>
+      </c>
+      <c r="B462" t="n">
+        <v>378</v>
+      </c>
+      <c r="C462" t="n">
+        <v>4.98609858</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>2026-01-12</t>
+        </is>
+      </c>
+      <c r="B463" t="n">
+        <v>218.6138</v>
+      </c>
+      <c r="C463" t="n">
+        <v>5.00795996</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>2026-01-13</t>
+        </is>
+      </c>
+      <c r="B464" t="n">
+        <v>76.31999999999999</v>
+      </c>
+      <c r="C464" t="n">
+        <v>5.01559196</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>2026-01-14</t>
+        </is>
+      </c>
+      <c r="B465" t="n">
+        <v>-49.91</v>
+      </c>
+      <c r="C465" t="n">
+        <v>5.01060096</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>2026-01-15</t>
+        </is>
+      </c>
+      <c r="B466" t="n">
+        <v>-80.38</v>
+      </c>
+      <c r="C466" t="n">
+        <v>5.00256296</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="B467" t="n">
+        <v>78.79000000000001</v>
+      </c>
+      <c r="C467" t="n">
+        <v>5.01044196</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>2026-01-19</t>
+        </is>
+      </c>
+      <c r="B468" t="n">
+        <v>63.7</v>
+      </c>
+      <c r="C468" t="n">
+        <v>5.01681196</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="B469" t="n">
+        <v>118.49</v>
+      </c>
+      <c r="C469" t="n">
+        <v>5.02866096</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="B470" t="n">
+        <v>-5.3</v>
+      </c>
+      <c r="C470" t="n">
+        <v>5.02813096</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+      <c r="B471" t="n">
+        <v>118.62</v>
+      </c>
+      <c r="C471" t="n">
+        <v>5.03999296</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="B472" t="n">
+        <v>-60.74</v>
+      </c>
+      <c r="C472" t="n">
+        <v>5.03391896</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>2026-01-26</t>
+        </is>
+      </c>
+      <c r="B473" t="n">
+        <v>330.34</v>
+      </c>
+      <c r="C473" t="n">
+        <v>5.06695296</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B474" t="n">
+        <v>370.6</v>
+      </c>
+      <c r="C474" t="n">
+        <v>5.10401296</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B475" t="n">
+        <v>214.87</v>
+      </c>
+      <c r="C475" t="n">
+        <v>5.12549996</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="B476" t="n">
+        <v>19.09</v>
+      </c>
+      <c r="C476" t="n">
+        <v>5.12740896</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="B477" t="n">
+        <v>-127.46</v>
+      </c>
+      <c r="C477" t="n">
+        <v>5.11466296</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>2026-02-02</t>
+        </is>
+      </c>
+      <c r="B478" t="n">
+        <v>374.92</v>
+      </c>
+      <c r="C478" t="n">
+        <v>5.15215496</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>2026-02-03</t>
+        </is>
+      </c>
+      <c r="B479" t="n">
+        <v>205.8325</v>
+      </c>
+      <c r="C479" t="n">
+        <v>5.17273821</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>2026-02-04</t>
+        </is>
+      </c>
+      <c r="B480" t="n">
+        <v>210.4</v>
+      </c>
+      <c r="C480" t="n">
+        <v>5.19377821</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B481" t="n">
+        <v>86.496</v>
+      </c>
+      <c r="C481" t="n">
+        <v>5.20242781</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="B482" t="n">
+        <v>109.06</v>
+      </c>
+      <c r="C482" t="n">
+        <v>5.21333381</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="B483" t="n">
+        <v>385.37</v>
+      </c>
+      <c r="C483" t="n">
+        <v>5.25187081</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>2026-02-10</t>
+        </is>
+      </c>
+      <c r="B484" t="n">
+        <v>349.31</v>
+      </c>
+      <c r="C484" t="n">
+        <v>5.28680181</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="B485" t="n">
+        <v>63.29</v>
+      </c>
+      <c r="C485" t="n">
+        <v>5.29313081</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="C486" t="n">
+        <v>5.29329281</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
           <t>2026-02-13</t>
         </is>
       </c>
-      <c r="B75" t="n">
+      <c r="B487" t="n">
         <v>42.53</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C487" t="n">
         <v>5.29754581</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+      <c r="B488" t="n">
+        <v>0</v>
+      </c>
+      <c r="C488" t="n">
+        <v>5.29754581</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="B489" t="n">
+        <v>0</v>
+      </c>
+      <c r="C489" t="n">
+        <v>5.29754581</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="B490" t="n">
+        <v>0</v>
+      </c>
+      <c r="C490" t="n">
+        <v>5.29754581</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B491" t="n">
+        <v>-37.37</v>
+      </c>
+      <c r="C491" t="n">
+        <v>5.29380881</v>
       </c>
     </row>
   </sheetData>
